--- a/Dow 30/Apple/Apple DCF.xlsx
+++ b/Dow 30/Apple/Apple DCF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\Apple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E878386-FB85-4BE5-9A99-356763A358B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B168DA-3833-4D57-84F3-58181199AD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
+    <workbookView xWindow="23880" yWindow="-7830" windowWidth="24240" windowHeight="18240" activeTab="1" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
   </bookViews>
   <sheets>
     <sheet name="Street Estimates" sheetId="1" r:id="rId1"/>
@@ -766,7 +766,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,9 +940,7 @@
       <c r="L8" s="41">
         <v>125700</v>
       </c>
-      <c r="M8" s="41">
-        <v>124000</v>
-      </c>
+      <c r="M8" s="41"/>
       <c r="N8" s="41">
         <v>141000</v>
       </c>
@@ -1012,7 +1010,7 @@
       </c>
       <c r="M10" s="8">
         <f t="shared" si="0"/>
-        <v>22320</v>
+        <v>0</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="0"/>
@@ -1207,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B2B475-E092-48FC-990D-00D6632DE395}">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
@@ -1294,7 +1292,7 @@
       </c>
       <c r="N6" s="37">
         <f>'Street Estimates'!M8</f>
-        <v>124000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="37">
         <f>'Street Estimates'!N8</f>
@@ -1331,7 +1329,7 @@
       </c>
       <c r="N7" s="10">
         <f>-'Street Estimates'!M10</f>
-        <v>-22320</v>
+        <v>0</v>
       </c>
       <c r="O7" s="10">
         <f>-'Street Estimates'!N10</f>
@@ -1487,7 +1485,7 @@
       </c>
       <c r="N11" s="10">
         <f t="shared" si="0"/>
-        <v>132876</v>
+        <v>31196</v>
       </c>
       <c r="O11" s="10">
         <f t="shared" si="0"/>
@@ -1716,24 +1714,24 @@
         <v>41</v>
       </c>
       <c r="G33" s="10">
-        <f>J11*G32</f>
-        <v>126025.09755697903</v>
+        <f>K11*G32</f>
+        <v>127587.1312910563</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" ref="H33:K33" si="1">K11*H32</f>
-        <v>122968.71914035641</v>
+        <f t="shared" ref="H33:K33" si="1">L11*H32</f>
+        <v>122073.24595162328</v>
       </c>
       <c r="I33" s="10">
         <f t="shared" si="1"/>
-        <v>117654.42599169933</v>
+        <v>118279.33783085168</v>
       </c>
       <c r="J33" s="10">
         <f t="shared" si="1"/>
-        <v>113997.85014877039</v>
+        <v>26918.448095501892</v>
       </c>
       <c r="K33" s="10">
         <f t="shared" si="1"/>
-        <v>110505.89065343038</v>
+        <v>115993.09576595134</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -1754,7 +1752,7 @@
       <c r="E35" s="31"/>
       <c r="F35" s="30">
         <f>SUM(G33:K34)</f>
-        <v>4128058.6145626525</v>
+        <v>4047757.8900064016</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -1806,7 +1804,7 @@
       <c r="C42" s="48"/>
       <c r="F42" s="29">
         <f>F35+F38-F40-F41</f>
-        <v>4075598.6145626525</v>
+        <v>3995297.8900064016</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -1826,7 +1824,7 @@
       </c>
       <c r="F45" s="25">
         <f>F42/F44</f>
-        <v>246.55768993119494</v>
+        <v>241.69981185761654</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
@@ -1835,7 +1833,7 @@
       </c>
       <c r="F46" s="25">
         <f>F45-147.02</f>
-        <v>99.537689931194933</v>
+        <v>94.679811857616528</v>
       </c>
     </row>
   </sheetData>

--- a/Dow 30/Apple/Apple DCF.xlsx
+++ b/Dow 30/Apple/Apple DCF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\Apple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B168DA-3833-4D57-84F3-58181199AD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEECFA5B-08CC-4241-8C62-1380623BFBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-7830" windowWidth="24240" windowHeight="18240" activeTab="1" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
+    <workbookView minimized="1" xWindow="30000" yWindow="-7710" windowWidth="18000" windowHeight="9810" activeTab="1" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
   </bookViews>
   <sheets>
     <sheet name="Street Estimates" sheetId="1" r:id="rId1"/>
@@ -766,7 +766,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1206,7 @@
   <dimension ref="B2:O46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Dow 30/Apple/Apple DCF.xlsx
+++ b/Dow 30/Apple/Apple DCF.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\Apple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEECFA5B-08CC-4241-8C62-1380623BFBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22169278-3F05-4D9A-90D8-E68A12899F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30000" yWindow="-7710" windowWidth="18000" windowHeight="9810" activeTab="1" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
   </bookViews>
   <sheets>
-    <sheet name="Street Estimates" sheetId="1" r:id="rId1"/>
-    <sheet name="DCF Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Historical Data" sheetId="3" r:id="rId1"/>
+    <sheet name="Street Estimates" sheetId="1" r:id="rId2"/>
+    <sheet name="DCF Model" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>Ticker: AAPL</t>
   </si>
@@ -44,9 +45,6 @@
     <t>EBIT:</t>
   </si>
   <si>
-    <t>Income Statement:</t>
-  </si>
-  <si>
     <t>Current Price: $147.02</t>
   </si>
   <si>
@@ -189,17 +187,72 @@
   </si>
   <si>
     <t>Upside</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Cost of Revenues</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Gross Profit Margin</t>
+  </si>
+  <si>
+    <t>R&amp;D Expenses</t>
+  </si>
+  <si>
+    <t>General &amp; Admin Expense</t>
+  </si>
+  <si>
+    <t>Other Expense</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Net Interest Expenses</t>
+  </si>
+  <si>
+    <t>Income Tax Expense</t>
+  </si>
+  <si>
+    <t>Net Income to Company</t>
+  </si>
+  <si>
+    <t>Net Income to Stockholders</t>
+  </si>
+  <si>
+    <t>Basic EPS</t>
+  </si>
+  <si>
+    <t>Diluted EPS</t>
+  </si>
+  <si>
+    <t>Revenue Growth y/y</t>
+  </si>
+  <si>
+    <t>(in Millions)</t>
+  </si>
+  <si>
+    <t>EBT, Unusual Items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +300,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2900C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -385,14 +445,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -448,6 +507,31 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,6 +539,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000C0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -762,11 +851,738 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DD8F44-453E-4BC8-8068-53C0A18A7DEC}">
+  <dimension ref="B2:N30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3">
+        <v>4</v>
+      </c>
+      <c r="N4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13">
+        <v>2017</v>
+      </c>
+      <c r="F5" s="14">
+        <v>2018</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2019</v>
+      </c>
+      <c r="H5" s="14">
+        <v>2020</v>
+      </c>
+      <c r="I5" s="14">
+        <v>2021</v>
+      </c>
+      <c r="J5" s="13">
+        <v>2022</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2023</v>
+      </c>
+      <c r="L5" s="14">
+        <v>2024</v>
+      </c>
+      <c r="M5" s="14">
+        <v>2025</v>
+      </c>
+      <c r="N5" s="14">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="64">
+        <v>229234</v>
+      </c>
+      <c r="F6" s="65">
+        <v>265595</v>
+      </c>
+      <c r="G6" s="65">
+        <v>260174</v>
+      </c>
+      <c r="H6" s="65">
+        <v>274515</v>
+      </c>
+      <c r="I6" s="65">
+        <v>365817</v>
+      </c>
+      <c r="J6" s="60"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="66">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F7" s="67">
+        <v>0.159</v>
+      </c>
+      <c r="G7" s="67">
+        <v>-0.02</v>
+      </c>
+      <c r="H7" s="67">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I7" s="67">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="54"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="64">
+        <v>-141048</v>
+      </c>
+      <c r="F9" s="65">
+        <v>-163756</v>
+      </c>
+      <c r="G9" s="65">
+        <v>-161782</v>
+      </c>
+      <c r="H9" s="65">
+        <v>-169559</v>
+      </c>
+      <c r="I9" s="65">
+        <v>-212981</v>
+      </c>
+      <c r="J9" s="63"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="68">
+        <v>88186</v>
+      </c>
+      <c r="F10" s="69">
+        <v>101839</v>
+      </c>
+      <c r="G10" s="69">
+        <v>98392</v>
+      </c>
+      <c r="H10" s="69">
+        <v>104956</v>
+      </c>
+      <c r="I10" s="69">
+        <v>152836</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="66">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F11" s="67">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="G11" s="67">
+        <v>0.378</v>
+      </c>
+      <c r="H11" s="67">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="I11" s="67">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="J11" s="61"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="54"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="64">
+        <v>-11581</v>
+      </c>
+      <c r="F13" s="65">
+        <v>-14236</v>
+      </c>
+      <c r="G13" s="65">
+        <v>-16217</v>
+      </c>
+      <c r="H13" s="65">
+        <v>-18752</v>
+      </c>
+      <c r="I13" s="65">
+        <v>-21914</v>
+      </c>
+      <c r="J13" s="60"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="68">
+        <v>-15261</v>
+      </c>
+      <c r="F14" s="69">
+        <v>-16705</v>
+      </c>
+      <c r="G14" s="69">
+        <v>-18245</v>
+      </c>
+      <c r="H14" s="69">
+        <v>-19916</v>
+      </c>
+      <c r="I14" s="69">
+        <v>-21973</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="68">
+        <v>-133</v>
+      </c>
+      <c r="F15" s="69">
+        <v>-441</v>
+      </c>
+      <c r="G15" s="69">
+        <v>442</v>
+      </c>
+      <c r="H15" s="69">
+        <v>-87</v>
+      </c>
+      <c r="I15" s="69">
+        <v>60</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="68">
+        <v>-26975</v>
+      </c>
+      <c r="F16" s="69">
+        <v>-31382</v>
+      </c>
+      <c r="G16" s="69">
+        <v>-34040</v>
+      </c>
+      <c r="H16" s="69">
+        <v>-38755</v>
+      </c>
+      <c r="I16" s="69">
+        <v>-43827</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="70">
+        <v>61211</v>
+      </c>
+      <c r="F17" s="71">
+        <v>70457</v>
+      </c>
+      <c r="G17" s="71">
+        <v>64352</v>
+      </c>
+      <c r="H17" s="71">
+        <v>66201</v>
+      </c>
+      <c r="I17" s="71">
+        <v>109009</v>
+      </c>
+      <c r="J17" s="61"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="54"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="64">
+        <v>2878</v>
+      </c>
+      <c r="F19" s="65">
+        <v>2446</v>
+      </c>
+      <c r="G19" s="65">
+        <v>1385</v>
+      </c>
+      <c r="H19" s="65">
+        <v>890</v>
+      </c>
+      <c r="I19" s="65">
+        <v>198</v>
+      </c>
+      <c r="J19" s="60"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="68">
+        <v>64089</v>
+      </c>
+      <c r="F20" s="69">
+        <v>72903</v>
+      </c>
+      <c r="G20" s="69">
+        <v>65737</v>
+      </c>
+      <c r="H20" s="69">
+        <v>67091</v>
+      </c>
+      <c r="I20" s="69">
+        <v>109207</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="68">
+        <v>-15738</v>
+      </c>
+      <c r="F21" s="69">
+        <v>-13372</v>
+      </c>
+      <c r="G21" s="69">
+        <v>-10481</v>
+      </c>
+      <c r="H21" s="69">
+        <v>-9680</v>
+      </c>
+      <c r="I21" s="69">
+        <v>-14527</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="70">
+        <v>48351</v>
+      </c>
+      <c r="F22" s="71">
+        <v>59531</v>
+      </c>
+      <c r="G22" s="71">
+        <v>55256</v>
+      </c>
+      <c r="H22" s="71">
+        <v>57411</v>
+      </c>
+      <c r="I22" s="71">
+        <v>94680</v>
+      </c>
+      <c r="J22" s="61"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="54"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="72">
+        <v>48351</v>
+      </c>
+      <c r="F24" s="73">
+        <v>59531</v>
+      </c>
+      <c r="G24" s="73">
+        <v>55256</v>
+      </c>
+      <c r="H24" s="73">
+        <v>57411</v>
+      </c>
+      <c r="I24" s="73">
+        <v>94680</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="54"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="74">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F26" s="75">
+        <v>3</v>
+      </c>
+      <c r="G26" s="75">
+        <v>2.99</v>
+      </c>
+      <c r="H26" s="75">
+        <v>3.31</v>
+      </c>
+      <c r="I26" s="75">
+        <v>5.67</v>
+      </c>
+      <c r="J26" s="60"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="76">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F27" s="77">
+        <v>2.98</v>
+      </c>
+      <c r="G27" s="77">
+        <v>2.97</v>
+      </c>
+      <c r="H27" s="77">
+        <v>3.28</v>
+      </c>
+      <c r="I27" s="77">
+        <v>5.61</v>
+      </c>
+      <c r="J27" s="61"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="55"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="68">
+        <v>61344</v>
+      </c>
+      <c r="F29" s="69">
+        <v>70898</v>
+      </c>
+      <c r="G29" s="69">
+        <v>63930</v>
+      </c>
+      <c r="H29" s="69">
+        <v>66288</v>
+      </c>
+      <c r="I29" s="69">
+        <v>108949</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="70">
+        <v>71501</v>
+      </c>
+      <c r="F30" s="71">
+        <v>81801</v>
+      </c>
+      <c r="G30" s="71">
+        <v>76477</v>
+      </c>
+      <c r="H30" s="71">
+        <v>77344</v>
+      </c>
+      <c r="I30" s="71">
+        <v>120233</v>
+      </c>
+      <c r="J30" s="61"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="E4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97481FEC-A471-4B7A-BB02-7A12F1505144}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,46 +1593,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
+      <c r="A1" s="9"/>
       <c r="E1" s="4"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="4">
         <v>1</v>
       </c>
@@ -834,44 +1650,44 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14">
+      <c r="B5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13">
         <v>2017</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>2018</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>2019</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>2020</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>2021</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>2022</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>2023</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>2024</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>2025</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <v>2026</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="5"/>
@@ -879,317 +1695,807 @@
       <c r="E6" s="2">
         <v>61344</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <v>70898</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <v>63930</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <v>66288</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="38">
         <v>108900</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>13</v>
+      <c r="B7" s="54" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="40">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="39">
         <v>122700</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="38">
         <v>133500</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="38">
         <v>135700</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="38">
         <v>142200</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N7" s="38">
         <v>153300</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="39">
+        <v>119500</v>
+      </c>
+      <c r="K8" s="40">
+        <v>122500</v>
+      </c>
+      <c r="L8" s="40">
+        <v>125700</v>
+      </c>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40">
+        <v>141000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="40">
-        <v>119500</v>
-      </c>
-      <c r="K8" s="41">
-        <v>122500</v>
-      </c>
-      <c r="L8" s="41">
-        <v>125700</v>
-      </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41">
-        <v>141000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="39">
+        <v>116500</v>
+      </c>
+      <c r="K9" s="40">
+        <v>109300</v>
+      </c>
+      <c r="L9" s="40">
+        <v>112900</v>
+      </c>
+      <c r="M9" s="40">
+        <v>122700</v>
+      </c>
+      <c r="N9" s="40">
+        <v>128900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="40">
-        <v>116500</v>
-      </c>
-      <c r="K9" s="41">
-        <v>109300</v>
-      </c>
-      <c r="L9" s="41">
-        <v>112900</v>
-      </c>
-      <c r="M9" s="41">
-        <v>122700</v>
-      </c>
-      <c r="N9" s="41">
-        <v>128900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6">
         <f>24.6%*E6</f>
         <v>15090.624000000002</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f>18.3%*F6</f>
         <v>12974.333999999999</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f>15.9%*G6</f>
         <v>10164.870000000001</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <f>14.4%*H6</f>
         <v>9545.4720000000016</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <f>13.3%*I6</f>
         <v>14483.7</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <f>18%*J8</f>
         <v>21510</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <f t="shared" ref="K10:N10" si="0">18%*K8</f>
         <v>22050</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <f t="shared" si="0"/>
         <v>22626</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <f t="shared" si="0"/>
         <v>25380</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="42">
+      <c r="B11" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="41">
         <v>10157</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="42">
         <v>10903</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="42">
         <v>12547</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="42">
         <v>11056</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="42">
         <v>11284</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="41">
         <v>11796</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="42">
         <v>11789</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="42">
         <v>12101</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="42">
         <v>17427</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="42">
         <v>13159</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="43">
+        <v>12451</v>
+      </c>
+      <c r="F12" s="40">
+        <v>13313</v>
+      </c>
+      <c r="G12" s="40">
+        <v>10495</v>
+      </c>
+      <c r="H12" s="40">
+        <v>7309</v>
+      </c>
+      <c r="I12" s="44">
+        <v>11085</v>
+      </c>
+      <c r="J12" s="43"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="44">
-        <v>12451</v>
-      </c>
-      <c r="F12" s="41">
-        <v>13313</v>
-      </c>
-      <c r="G12" s="41">
-        <v>10495</v>
-      </c>
-      <c r="H12" s="41">
-        <v>7309</v>
-      </c>
-      <c r="I12" s="45">
-        <v>11085</v>
-      </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="2">
         <v>12173</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="40">
         <v>20282</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="40">
         <v>19363</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="40">
         <v>20428</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="40">
         <v>21882</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>5</v>
+      <c r="B14" s="54" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="2">
         <v>10731</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="40">
         <v>12415</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="40">
         <v>13295</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="40">
         <v>15436</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="40">
         <v>15385</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>6</v>
+      <c r="B15" s="57" t="s">
+        <v>5</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="46">
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="45">
         <v>9540</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="46">
         <v>10000</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="46">
         <v>10686</v>
       </c>
-      <c r="M15" s="47">
+      <c r="M15" s="46">
         <v>11010</v>
       </c>
-      <c r="N15" s="47">
+      <c r="N15" s="46">
         <v>11120</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="B16" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="43">
         <v>27877</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="42">
         <v>30143</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="42">
         <v>27216</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="42">
         <v>37393</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="42">
         <v>36143</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="43">
         <v>33324</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="42">
         <v>31591</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="42">
         <v>30233</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="42">
         <v>29205</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="42">
         <v>26080</v>
       </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="54"/>
+      <c r="E17" s="59"/>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="54"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="54"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="54"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="54"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="54"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="54"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="54"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="54"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="54"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="54"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="54"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="54"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="54"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="54"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="54"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="54"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="54"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="54"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="54"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="54"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="54"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="54"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="54"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="54"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="54"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="54"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="54"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="54"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="54"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="54"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="54"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="54"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="54"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="54"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="54"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1201,639 +2507,639 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B2B475-E092-48FC-990D-00D6632DE395}">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="10"/>
-    <col min="6" max="7" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="5" width="9.140625" style="9"/>
+    <col min="6" max="7" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="I5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
+      <c r="L5" s="19">
+        <v>2</v>
+      </c>
+      <c r="M5" s="19">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="N5" s="19">
+        <v>4</v>
+      </c>
+      <c r="O5" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="I6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="I5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="20">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20">
-        <v>1</v>
-      </c>
-      <c r="L5" s="20">
-        <v>2</v>
-      </c>
-      <c r="M5" s="20">
-        <v>3</v>
-      </c>
-      <c r="N5" s="20">
-        <v>4</v>
-      </c>
-      <c r="O5" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="I6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="37">
+      <c r="J6" s="36">
         <f>'Street Estimates'!I6</f>
         <v>108900</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="36">
         <f>'Street Estimates'!J8</f>
         <v>119500</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="36">
         <f>'Street Estimates'!K8</f>
         <v>122500</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="36">
         <f>'Street Estimates'!L8</f>
         <v>125700</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="36">
         <f>'Street Estimates'!M8</f>
         <v>0</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="36">
         <f>'Street Estimates'!N8</f>
         <v>141000</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="I7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="B7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="I7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="9">
         <f>-'Street Estimates'!I10</f>
         <v>-14483.7</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <f>-'Street Estimates'!J10</f>
         <v>-21510</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <f>-'Street Estimates'!K10</f>
         <v>-22050</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <f>-'Street Estimates'!L10</f>
         <v>-22626</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <f>-'Street Estimates'!M10</f>
         <v>0</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <f>-'Street Estimates'!N10</f>
         <v>-25380</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="26">
+      <c r="B8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25">
         <v>1.11E-2</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="37">
+      <c r="I8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="36">
         <f>'Street Estimates'!I11</f>
         <v>11284</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="36">
         <f>'Street Estimates'!J11</f>
         <v>11796</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="36">
         <f>'Street Estimates'!K11</f>
         <v>11789</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="36">
         <f>'Street Estimates'!L11</f>
         <v>12101</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="36">
         <f>'Street Estimates'!M11</f>
         <v>17427</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="36">
         <f>'Street Estimates'!N11</f>
         <v>13159</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27">
+      <c r="B9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26">
         <v>20.6</v>
       </c>
-      <c r="I9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="37">
+      <c r="I9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="36">
         <f>-('Street Estimates'!I12)</f>
         <v>-11085</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="36">
         <f>-'Street Estimates'!J14</f>
         <v>-10731</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="36">
         <f>-'Street Estimates'!K14</f>
         <v>-12415</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="36">
         <f>-'Street Estimates'!L14</f>
         <v>-13295</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="36">
         <f>-'Street Estimates'!M14</f>
         <v>-15436</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="36">
         <f>-'Street Estimates'!N14</f>
         <v>-15385</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="26">
+      <c r="B10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="25">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="38">
+      <c r="I10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="37">
         <f>'Street Estimates'!I16</f>
         <v>36143</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="37">
         <f>'Street Estimates'!J16</f>
         <v>33324</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="37">
         <f>'Street Estimates'!K16</f>
         <v>31591</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="37">
         <f>'Street Estimates'!L16</f>
         <v>30233</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="37">
         <f>'Street Estimates'!M16</f>
         <v>29205</v>
       </c>
-      <c r="O10" s="38">
+      <c r="O10" s="37">
         <f>'Street Estimates'!N16</f>
         <v>26080</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="26">
+      <c r="B11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="25">
         <v>0.13300000000000001</v>
       </c>
-      <c r="I11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="I11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="9">
         <f>SUM(J6:J10)</f>
         <v>130758.3</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <f t="shared" ref="K11:O11" si="0">SUM(K6:K10)</f>
         <v>132379</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f t="shared" si="0"/>
         <v>131415</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <f t="shared" si="0"/>
         <v>132113</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <f t="shared" si="0"/>
         <v>31196</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <f t="shared" si="0"/>
         <v>139474</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25">
+        <v>3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="26">
-        <v>3.0800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26">
-        <v>2.9100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="9">
+        <v>63090</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="10">
-        <v>63090</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="9">
+        <v>136500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="10">
-        <v>136500</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
+      <c r="G20" s="25">
+        <f>G12+G14*(G15-G12)</f>
+        <v>7.7448000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="26">
-        <f>G12+G14*(G15-G12)</f>
-        <v>2.8777E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <f>G17/SUM(G16:G17)</f>
         <v>0.68390199909815119</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="26">
+      <c r="B22" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="25">
         <f>G16/SUM(G16:G17)</f>
         <v>0.31609800090184881</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="35">
+      <c r="B23" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="34">
         <f>G22*G20+G21*G10*(1-G11)</f>
-        <v>3.7557617766421164E-2</v>
+        <v>5.294242356831505E-2</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <f>O6+O8</f>
         <v>154159</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="B27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="9">
         <f>G26*G9</f>
         <v>3175675.4000000004</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="9">
+        <f>O11*(1+G8)/(G23-G8)</f>
+        <v>3370315.3253003317</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="10">
-        <f>O11*(1+G8)/(G23-G8)</f>
-        <v>5330115.6077241041</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30">
+        <f>AVERAGE(G27:G28)</f>
+        <v>3272995.3626501663</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31">
-        <f>AVERAGE(G27:G28)</f>
-        <v>4252895.5038620522</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="32" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="33" t="s">
+      <c r="G32" s="24">
+        <f>1/(1+$G$23)^K5</f>
+        <v>0.94971954554846538</v>
+      </c>
+      <c r="H32" s="24">
+        <f>1/(1+$G$23)^L5</f>
+        <v>0.90196721519678358</v>
+      </c>
+      <c r="I32" s="24">
+        <f>1/(1+$G$23)^M5</f>
+        <v>0.85661589371630409</v>
+      </c>
+      <c r="J32" s="24">
+        <f>1/(1+$G$23)^N5</f>
+        <v>0.81354485728984083</v>
+      </c>
+      <c r="K32" s="24">
+        <f>1/(1+$G$23)^O5</f>
+        <v>0.77263945214859875</v>
+      </c>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="25">
-        <f>1/(1+$G$23)^K5</f>
-        <v>0.96380189675897465</v>
-      </c>
-      <c r="H32" s="25">
-        <f>1/(1+$G$23)^L5</f>
-        <v>0.92891409619619736</v>
-      </c>
-      <c r="I32" s="25">
-        <f>1/(1+$G$23)^M5</f>
-        <v>0.89528916784004364</v>
-      </c>
-      <c r="J32" s="25">
-        <f>1/(1+$G$23)^N5</f>
-        <v>0.86288139811199804</v>
-      </c>
-      <c r="K32" s="25">
-        <f>1/(1+$G$23)^O5</f>
-        <v>0.8316467281783797</v>
-      </c>
-      <c r="L32" s="25"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="33" t="s">
+      <c r="G33" s="9">
+        <f>K11*G32</f>
+        <v>125722.9237201603</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" ref="H33:K33" si="1">L11*H32</f>
+        <v>118532.02158508531</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="1"/>
+        <v>113170.09556654208</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="1"/>
+        <v>25379.345368013874</v>
+      </c>
+      <c r="K33" s="9">
+        <f t="shared" si="1"/>
+        <v>107763.11494897366</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="10">
-        <f>K11*G32</f>
-        <v>127587.1312910563</v>
-      </c>
-      <c r="H33" s="10">
-        <f t="shared" ref="H33:K33" si="1">L11*H32</f>
-        <v>122073.24595162328</v>
-      </c>
-      <c r="I33" s="10">
-        <f t="shared" si="1"/>
-        <v>118279.33783085168</v>
-      </c>
-      <c r="J33" s="10">
-        <f t="shared" si="1"/>
-        <v>26918.448095501892</v>
-      </c>
-      <c r="K33" s="10">
-        <f t="shared" si="1"/>
-        <v>115993.09576595134</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="33" t="s">
+      <c r="K34" s="9">
+        <f>K32*G29</f>
+        <v>2528845.3438829286</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="K34" s="10">
-        <f>K32*G29</f>
-        <v>3536906.6310714171</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="34" t="s">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="29">
+        <f>SUM(G33:K34)</f>
+        <v>3019412.8450717037</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="30">
-        <f>SUM(G33:K34)</f>
-        <v>4047757.8900064016</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="32" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="33" t="s">
+      <c r="F38" s="47">
+        <v>62640</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="48">
-        <v>62640</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="33" t="s">
+      <c r="F39" s="47"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="48"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="33" t="s">
+      <c r="F40" s="47">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="48">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="49" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="37">
+        <v>109100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="F42" s="28">
+        <f>F35+F38-F40-F41</f>
+        <v>2966952.8450717037</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="38">
-        <v>109100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="48"/>
-      <c r="F42" s="29">
-        <f>F35+F38-F40-F41</f>
-        <v>3995297.8900064016</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="37">
+        <v>16530</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="24">
+        <f>F42/F44</f>
+        <v>179.48898034311577</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="38">
-        <v>16530</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="25">
-        <f>F42/F44</f>
-        <v>241.69981185761654</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="25">
+      <c r="F46" s="24">
         <f>F45-147.02</f>
-        <v>94.679811857616528</v>
+        <v>32.46898034311576</v>
       </c>
     </row>
   </sheetData>

--- a/Dow 30/Apple/Apple DCF.xlsx
+++ b/Dow 30/Apple/Apple DCF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\Apple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22169278-3F05-4D9A-90D8-E68A12899F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA22BD8-372D-47E2-9B59-9519B887E1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical Data" sheetId="3" r:id="rId1"/>
@@ -495,18 +495,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -532,6 +520,18 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DD8F44-453E-4BC8-8068-53C0A18A7DEC}">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -887,30 +887,30 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="49" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="4">
         <v>1</v>
       </c>
@@ -965,68 +965,68 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="64">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="60">
         <v>229234</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="61">
         <v>265595</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="61">
         <v>260174</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="61">
         <v>274515</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="61">
         <v>365817</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="66">
+      <c r="E7" s="62">
         <v>6.3E-2</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="63">
         <v>0.159</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="63">
         <v>-0.02</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="63">
         <v>5.5E-2</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="63">
         <v>0.33300000000000002</v>
       </c>
-      <c r="J7" s="61"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
       <c r="J8" s="4"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1034,51 +1034,51 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="64">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="60">
         <v>-141048</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="61">
         <v>-163756</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="61">
         <v>-161782</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="61">
         <v>-169559</v>
       </c>
-      <c r="I9" s="65">
+      <c r="I9" s="61">
         <v>-212981</v>
       </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="50" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="68">
+      <c r="E10" s="64">
         <v>88186</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="65">
         <v>101839</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="65">
         <v>98392</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="65">
         <v>104956</v>
       </c>
-      <c r="I10" s="69">
+      <c r="I10" s="65">
         <v>152836</v>
       </c>
       <c r="J10" s="4"/>
@@ -1088,41 +1088,41 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="53" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="66">
+      <c r="E11" s="62">
         <v>0.38500000000000001</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="63">
         <v>0.38300000000000001</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="63">
         <v>0.378</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="63">
         <v>0.38200000000000001</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="63">
         <v>0.41799999999999998</v>
       </c>
-      <c r="J11" s="61"/>
+      <c r="J11" s="57"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="54"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="4"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1130,51 +1130,51 @@
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="64">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="60">
         <v>-11581</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="61">
         <v>-14236</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="61">
         <v>-16217</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="61">
         <v>-18752</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="61">
         <v>-21914</v>
       </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="50" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="68">
+      <c r="E14" s="64">
         <v>-15261</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="65">
         <v>-16705</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G14" s="65">
         <v>-18245</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="65">
         <v>-19916</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="65">
         <v>-21973</v>
       </c>
       <c r="J14" s="4"/>
@@ -1184,24 +1184,24 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="50" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="68">
+      <c r="E15" s="64">
         <v>-133</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="65">
         <v>-441</v>
       </c>
-      <c r="G15" s="69">
+      <c r="G15" s="65">
         <v>442</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="65">
         <v>-87</v>
       </c>
-      <c r="I15" s="69">
+      <c r="I15" s="65">
         <v>60</v>
       </c>
       <c r="J15" s="4"/>
@@ -1211,24 +1211,24 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="50" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="68">
+      <c r="E16" s="64">
         <v>-26975</v>
       </c>
-      <c r="F16" s="69">
+      <c r="F16" s="65">
         <v>-31382</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="65">
         <v>-34040</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="65">
         <v>-38755</v>
       </c>
-      <c r="I16" s="69">
+      <c r="I16" s="65">
         <v>-43827</v>
       </c>
       <c r="J16" s="4"/>
@@ -1238,41 +1238,41 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="53" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="70">
+      <c r="E17" s="66">
         <v>61211</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="67">
         <v>70457</v>
       </c>
-      <c r="G17" s="71">
+      <c r="G17" s="67">
         <v>64352</v>
       </c>
-      <c r="H17" s="71">
+      <c r="H17" s="67">
         <v>66201</v>
       </c>
-      <c r="I17" s="71">
+      <c r="I17" s="67">
         <v>109009</v>
       </c>
-      <c r="J17" s="61"/>
+      <c r="J17" s="57"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="54"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
       <c r="J18" s="4"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1280,51 +1280,51 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="64">
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="60">
         <v>2878</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="61">
         <v>2446</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="61">
         <v>1385</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="61">
         <v>890</v>
       </c>
-      <c r="I19" s="65">
+      <c r="I19" s="61">
         <v>198</v>
       </c>
-      <c r="J19" s="60"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="50" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="68">
+      <c r="E20" s="64">
         <v>64089</v>
       </c>
-      <c r="F20" s="69">
+      <c r="F20" s="65">
         <v>72903</v>
       </c>
-      <c r="G20" s="69">
+      <c r="G20" s="65">
         <v>65737</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="65">
         <v>67091</v>
       </c>
-      <c r="I20" s="69">
+      <c r="I20" s="65">
         <v>109207</v>
       </c>
       <c r="J20" s="4"/>
@@ -1334,24 +1334,24 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="50" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="68">
+      <c r="E21" s="64">
         <v>-15738</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="65">
         <v>-13372</v>
       </c>
-      <c r="G21" s="69">
+      <c r="G21" s="65">
         <v>-10481</v>
       </c>
-      <c r="H21" s="69">
+      <c r="H21" s="65">
         <v>-9680</v>
       </c>
-      <c r="I21" s="69">
+      <c r="I21" s="65">
         <v>-14527</v>
       </c>
       <c r="J21" s="4"/>
@@ -1361,41 +1361,41 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="53" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="70">
+      <c r="E22" s="66">
         <v>48351</v>
       </c>
-      <c r="F22" s="71">
+      <c r="F22" s="67">
         <v>59531</v>
       </c>
-      <c r="G22" s="71">
+      <c r="G22" s="67">
         <v>55256</v>
       </c>
-      <c r="H22" s="71">
+      <c r="H22" s="67">
         <v>57411</v>
       </c>
-      <c r="I22" s="71">
+      <c r="I22" s="67">
         <v>94680</v>
       </c>
-      <c r="J22" s="61"/>
+      <c r="J22" s="57"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="54"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="4"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1403,24 +1403,24 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="51" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="72">
+      <c r="E24" s="68">
         <v>48351</v>
       </c>
-      <c r="F24" s="73">
+      <c r="F24" s="69">
         <v>59531</v>
       </c>
-      <c r="G24" s="73">
+      <c r="G24" s="69">
         <v>55256</v>
       </c>
-      <c r="H24" s="73">
+      <c r="H24" s="69">
         <v>57411</v>
       </c>
-      <c r="I24" s="73">
+      <c r="I24" s="69">
         <v>94680</v>
       </c>
       <c r="J24" s="6"/>
@@ -1430,14 +1430,14 @@
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
       <c r="J25" s="4"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1445,68 +1445,68 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="74">
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="70">
         <v>2.3199999999999998</v>
       </c>
-      <c r="F26" s="75">
+      <c r="F26" s="71">
         <v>3</v>
       </c>
-      <c r="G26" s="75">
+      <c r="G26" s="71">
         <v>2.99</v>
       </c>
-      <c r="H26" s="75">
+      <c r="H26" s="71">
         <v>3.31</v>
       </c>
-      <c r="I26" s="75">
+      <c r="I26" s="71">
         <v>5.67</v>
       </c>
-      <c r="J26" s="60"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="76">
+      <c r="E27" s="72">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="73">
         <v>2.98</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G27" s="73">
         <v>2.97</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="73">
         <v>3.28</v>
       </c>
-      <c r="I27" s="77">
+      <c r="I27" s="73">
         <v>5.61</v>
       </c>
-      <c r="J27" s="61"/>
+      <c r="J27" s="57"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
       <c r="J28" s="6"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -1514,24 +1514,24 @@
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="68">
+      <c r="E29" s="64">
         <v>61344</v>
       </c>
-      <c r="F29" s="69">
+      <c r="F29" s="65">
         <v>70898</v>
       </c>
-      <c r="G29" s="69">
+      <c r="G29" s="65">
         <v>63930</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="65">
         <v>66288</v>
       </c>
-      <c r="I29" s="69">
+      <c r="I29" s="65">
         <v>108949</v>
       </c>
       <c r="J29" s="4"/>
@@ -1541,27 +1541,27 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="53" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="70">
+      <c r="E30" s="66">
         <v>71501</v>
       </c>
-      <c r="F30" s="71">
+      <c r="F30" s="67">
         <v>81801</v>
       </c>
-      <c r="G30" s="71">
+      <c r="G30" s="67">
         <v>76477</v>
       </c>
-      <c r="H30" s="71">
+      <c r="H30" s="67">
         <v>77344</v>
       </c>
-      <c r="I30" s="71">
+      <c r="I30" s="67">
         <v>120233</v>
       </c>
-      <c r="J30" s="61"/>
+      <c r="J30" s="57"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1612,27 +1612,27 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="49" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="4">
         <v>1</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="5"/>
@@ -1714,7 +1714,7 @@
       <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="50" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="2"/>
@@ -1739,7 +1739,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="50" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="2"/>
@@ -1762,7 +1762,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="50" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="2"/>
@@ -1787,7 +1787,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="51" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="7"/>
@@ -1834,7 +1834,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="51" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="7"/>
@@ -1871,7 +1871,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="43">
@@ -1896,7 +1896,7 @@
       <c r="N12" s="40"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="50" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="2"/>
@@ -1921,7 +1921,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="50" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="2"/>
@@ -1946,7 +1946,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="53" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1"/>
@@ -1973,7 +1973,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="51" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="7"/>
@@ -2010,9 +2010,9 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="54"/>
-      <c r="E17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="B17" s="50"/>
+      <c r="E17" s="55"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18"/>
@@ -2390,112 +2390,112 @@
       <c r="N42"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="54"/>
+      <c r="B43" s="50"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="54"/>
+      <c r="B44" s="50"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="54"/>
+      <c r="B45" s="50"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="54"/>
+      <c r="B46" s="50"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="54"/>
+      <c r="B47" s="50"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="54"/>
+      <c r="B48" s="50"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="54"/>
+      <c r="B49" s="50"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="54"/>
+      <c r="B50" s="50"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="54"/>
+      <c r="B51" s="50"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="54"/>
+      <c r="B52" s="50"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="54"/>
+      <c r="B53" s="50"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="54"/>
+      <c r="B54" s="50"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="54"/>
+      <c r="B55" s="50"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="54"/>
+      <c r="B56" s="50"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="54"/>
+      <c r="B57" s="50"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="54"/>
+      <c r="B58" s="50"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="54"/>
+      <c r="B59" s="50"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="54"/>
+      <c r="B60" s="50"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="54"/>
+      <c r="B61" s="50"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="54"/>
+      <c r="B62" s="50"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="54"/>
+      <c r="B63" s="50"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="54"/>
+      <c r="B64" s="50"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="54"/>
+      <c r="B65" s="50"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="54"/>
+      <c r="B66" s="50"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="54"/>
+      <c r="B67" s="50"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="54"/>
+      <c r="B68" s="50"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="54"/>
+      <c r="B69" s="50"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="54"/>
+      <c r="B70" s="50"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="54"/>
+      <c r="B71" s="50"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="54"/>
+      <c r="B72" s="50"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="54"/>
+      <c r="B73" s="50"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="54"/>
+      <c r="B74" s="50"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="54"/>
+      <c r="B75" s="50"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="54"/>
+      <c r="B76" s="50"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="54"/>
+      <c r="B77" s="50"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="54"/>
+      <c r="B78" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2511,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B2B475-E092-48FC-990D-00D6632DE395}">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2540,14 +2540,14 @@
       <c r="D3" s="16"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
       <c r="I5" s="20" t="s">
         <v>18</v>
       </c>

--- a/Dow 30/Apple/Apple DCF.xlsx
+++ b/Dow 30/Apple/Apple DCF.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\Apple\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Apple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA22BD8-372D-47E2-9B59-9519B887E1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B4DA7B-B41E-4E00-BC57-C37196972834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
+    <workbookView xWindow="23880" yWindow="-6750" windowWidth="24240" windowHeight="18240" activeTab="3" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical Data" sheetId="3" r:id="rId1"/>
     <sheet name="Street Estimates" sheetId="1" r:id="rId2"/>
     <sheet name="DCF Model" sheetId="2" r:id="rId3"/>
+    <sheet name="Historical Estimates" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>Ticker: AAPL</t>
   </si>
@@ -241,6 +242,18 @@
   </si>
   <si>
     <t>EBT, Unusual Items</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>CAGR</t>
+  </si>
+  <si>
+    <t>Intrinsic Value</t>
+  </si>
+  <si>
+    <t>(5-year estimates)</t>
   </si>
 </sst>
 </file>
@@ -445,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -532,6 +545,9 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2511,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B2B475-E092-48FC-990D-00D6632DE395}">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3149,4 +3165,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA492CD5-AB56-4D55-B27E-4CE775C80393}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="78">
+        <v>44765</v>
+      </c>
+      <c r="B2">
+        <v>154.09</v>
+      </c>
+      <c r="C2" s="80">
+        <v>241.7</v>
+      </c>
+      <c r="D2">
+        <v>87.61</v>
+      </c>
+      <c r="E2" s="79">
+        <v>9.4200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="78">
+        <v>44774</v>
+      </c>
+      <c r="B3">
+        <v>161.51</v>
+      </c>
+      <c r="C3">
+        <v>179.49</v>
+      </c>
+      <c r="D3">
+        <v>17.98</v>
+      </c>
+      <c r="E3" s="79">
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dow 30/Apple/Apple DCF.xlsx
+++ b/Dow 30/Apple/Apple DCF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Apple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B4DA7B-B41E-4E00-BC57-C37196972834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057CA2FB-A860-478E-934D-48061F9E8619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-6750" windowWidth="24240" windowHeight="18240" activeTab="3" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
+    <workbookView xWindow="23880" yWindow="-6750" windowWidth="24240" windowHeight="18240" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical Data" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DCF Model" sheetId="2" r:id="rId3"/>
     <sheet name="Historical Estimates" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -533,6 +533,9 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,9 +548,6 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DD8F44-453E-4BC8-8068-53C0A18A7DEC}">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,30 +903,30 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="74" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="4">
         <v>1</v>
       </c>
@@ -1628,27 +1628,27 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="74" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="4">
         <v>1</v>
       </c>
@@ -2556,14 +2556,14 @@
       <c r="D3" s="16"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
       <c r="I5" s="20" t="s">
         <v>18</v>
       </c>
@@ -3171,7 +3171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA492CD5-AB56-4D55-B27E-4CE775C80393}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -3201,24 +3201,24 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="78">
+      <c r="A2" s="74">
         <v>44765</v>
       </c>
       <c r="B2">
         <v>154.09</v>
       </c>
-      <c r="C2" s="80">
+      <c r="C2" s="76">
         <v>241.7</v>
       </c>
       <c r="D2">
         <v>87.61</v>
       </c>
-      <c r="E2" s="79">
+      <c r="E2" s="75">
         <v>9.4200000000000006E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
+      <c r="A3" s="74">
         <v>44774</v>
       </c>
       <c r="B3">
@@ -3230,7 +3230,7 @@
       <c r="D3">
         <v>17.98</v>
       </c>
-      <c r="E3" s="79">
+      <c r="E3" s="75">
         <v>2.1299999999999999E-2</v>
       </c>
     </row>

--- a/Dow 30/Apple/Apple DCF.xlsx
+++ b/Dow 30/Apple/Apple DCF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Apple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057CA2FB-A860-478E-934D-48061F9E8619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBDC18D-F7B9-4D77-B566-3AA03E0583C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-6750" windowWidth="24240" windowHeight="18240" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
+    <workbookView xWindow="23880" yWindow="-7830" windowWidth="24240" windowHeight="18240" activeTab="3" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical Data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>Ticker: AAPL</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>(5-year estimates)</t>
+  </si>
+  <si>
+    <t>Upside/Downside</t>
   </si>
 </sst>
 </file>
@@ -870,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DD8F44-453E-4BC8-8068-53C0A18A7DEC}">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -2527,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B2B475-E092-48FC-990D-00D6632DE395}">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2867,7 +2870,7 @@
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="9">
-        <v>63090</v>
+        <v>2756455</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -2915,7 +2918,7 @@
       </c>
       <c r="G21" s="25">
         <f>G17/SUM(G16:G17)</f>
-        <v>0.68390199909815119</v>
+        <v>4.7183589098344081E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -2924,7 +2927,7 @@
       </c>
       <c r="G22" s="25">
         <f>G16/SUM(G16:G17)</f>
-        <v>0.31609800090184881</v>
+        <v>0.95281641090165592</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -2937,7 +2940,7 @@
       <c r="F23" s="30"/>
       <c r="G23" s="34">
         <f>G22*G20+G21*G10*(1-G11)</f>
-        <v>5.294242356831505E-2</v>
+        <v>7.5757317635428145E-2</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -2974,7 +2977,7 @@
       </c>
       <c r="G28" s="9">
         <f>O11*(1+G8)/(G23-G8)</f>
-        <v>3370315.3253003317</v>
+        <v>2181070.3963185865</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -2987,7 +2990,7 @@
       <c r="F29" s="30"/>
       <c r="G29" s="30">
         <f>AVERAGE(G27:G28)</f>
-        <v>3272995.3626501663</v>
+        <v>2678372.8981592935</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -3011,23 +3014,23 @@
       </c>
       <c r="G32" s="24">
         <f>1/(1+$G$23)^K5</f>
-        <v>0.94971954554846538</v>
+        <v>0.9295776878358154</v>
       </c>
       <c r="H32" s="24">
         <f>1/(1+$G$23)^L5</f>
-        <v>0.90196721519678358</v>
+        <v>0.86411467772218054</v>
       </c>
       <c r="I32" s="24">
         <f>1/(1+$G$23)^M5</f>
-        <v>0.85661589371630409</v>
+        <v>0.80326172414197539</v>
       </c>
       <c r="J32" s="24">
         <f>1/(1+$G$23)^N5</f>
-        <v>0.81354485728984083</v>
+        <v>0.74669417625490797</v>
       </c>
       <c r="K32" s="24">
         <f>1/(1+$G$23)^O5</f>
-        <v>0.77263945214859875</v>
+        <v>0.69411024588350612</v>
       </c>
       <c r="L32" s="24"/>
     </row>
@@ -3037,23 +3040,23 @@
       </c>
       <c r="G33" s="9">
         <f>K11*G32</f>
-        <v>125722.9237201603</v>
+        <v>123056.56473801741</v>
       </c>
       <c r="H33" s="9">
         <f t="shared" ref="H33:K33" si="1">L11*H32</f>
-        <v>118532.02158508531</v>
+        <v>113557.63037286035</v>
       </c>
       <c r="I33" s="9">
         <f t="shared" si="1"/>
-        <v>113170.09556654208</v>
+        <v>106121.3161615688</v>
       </c>
       <c r="J33" s="9">
         <f t="shared" si="1"/>
-        <v>25379.345368013874</v>
+        <v>23293.871522448109</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="1"/>
-        <v>107763.11494897366</v>
+        <v>96810.332434356125</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -3062,7 +3065,7 @@
       </c>
       <c r="K34" s="9">
         <f>K32*G29</f>
-        <v>2528845.3438829286</v>
+        <v>1859086.0709090661</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -3074,7 +3077,7 @@
       <c r="E35" s="30"/>
       <c r="F35" s="29">
         <f>SUM(G33:K34)</f>
-        <v>3019412.8450717037</v>
+        <v>2321925.7861383166</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -3126,7 +3129,7 @@
       <c r="C42" s="47"/>
       <c r="F42" s="28">
         <f>F35+F38-F40-F41</f>
-        <v>2966952.8450717037</v>
+        <v>2269465.7861383166</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -3146,7 +3149,7 @@
       </c>
       <c r="F45" s="24">
         <f>F42/F44</f>
-        <v>179.48898034311577</v>
+        <v>137.29375596723028</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
@@ -3155,7 +3158,7 @@
       </c>
       <c r="F46" s="24">
         <f>F45-147.02</f>
-        <v>32.46898034311576</v>
+        <v>-9.7262440327697277</v>
       </c>
     </row>
   </sheetData>
@@ -3169,10 +3172,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA492CD5-AB56-4D55-B27E-4CE775C80393}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,6 +3183,7 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3191,7 +3195,7 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
         <v>69</v>
@@ -3211,7 +3215,8 @@
         <v>241.7</v>
       </c>
       <c r="D2">
-        <v>87.61</v>
+        <f t="shared" ref="D2:D3" si="0">C2-B2</f>
+        <v>87.609999999999985</v>
       </c>
       <c r="E2" s="75">
         <v>9.4200000000000006E-2</v>
@@ -3228,10 +3233,29 @@
         <v>179.49</v>
       </c>
       <c r="D3">
-        <v>17.98</v>
+        <f t="shared" si="0"/>
+        <v>17.980000000000018</v>
       </c>
       <c r="E3" s="75">
         <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="74">
+        <v>44795</v>
+      </c>
+      <c r="B4">
+        <v>167.57</v>
+      </c>
+      <c r="C4">
+        <v>137.29</v>
+      </c>
+      <c r="D4">
+        <f>C4-B4</f>
+        <v>-30.28</v>
+      </c>
+      <c r="E4" s="75">
+        <v>-3.9100000000000003E-2</v>
       </c>
     </row>
   </sheetData>
